--- a/source_plates/buffer_source_plate_dummy.xlsx
+++ b/source_plates/buffer_source_plate_dummy.xlsx
@@ -504,18 +504,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B2,B3, B4,B5,B6,B7,B8,B9,B10,B11,B12, B13,B14</t>
+          <t>B2,B3, B4,B5,B6,B7,B8,B9,B10,B11,B12, B13,B14,B15, B16,B17,B18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65,65,65,65,65,65,65,65,65,65,65,65,65,65</t>
+          <t>65,65,65,65,65,65,65,65,65,65,65,65,65,65,65,65,65,65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15.700000000000003,1.9500000000000028,7.399999999999999,11.5,13.549999999999997,14.450000000000003,14.899999999999999,11.049999999999997,9.125,9.125,9.125,46.375,65.0,</t>
+          <t>15.700000000000003,21.15,26.6,26.6,28.65,30.700000000000003,30.700000000000003,14.450000000000003,14.899999999999999,29.674999999999997,27.75,27.75,27.75,27.75,27.75,46.375,65.0,</t>
         </is>
       </c>
     </row>
